--- a/example_data/EPA/label_corrected/089459-00054-20180726_2018-12-08_204422.xlsx
+++ b/example_data/EPA/label_corrected/089459-00054-20180726_2018-12-08_204422.xlsx
@@ -903,7 +903,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
